--- a/biology/Médecine/Supination/Supination.xlsx
+++ b/biology/Médecine/Supination/Supination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La supination est le mouvement de l'avant-bras et de la main dans lequel le radius tourne latéralement autour de son axe longitudinal de telle façon que la paume de la main s'oriente antérieurement (la paume regarde en avant) et que le dos de la main s'oriente postérieurement (le dos de la main regarde derrière). Le mouvement inverse est la pronation.
-Le terme est parfois associé au mouvement du pied[4].
+Le terme est parfois associé au mouvement du pied.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Avant-bras</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La position anatomique de référence est :
 bras le long du corps ;
@@ -546,7 +560,9 @@
           <t>Pied</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au niveau du pied, la supination est un mouvement combiné qui soulève le bord médial du pied. Elle permet donc de mettre face à face les plantes de chaque pied (vers « l'intérieur », vers le plan sagittal). Cette capacité est un caractère dérivé propre aux mammifères euarchontes. Elle peut se faire avec un seul pied.
 </t>
@@ -577,7 +593,9 @@
           <t>Représentations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Droite supination, (milieu), gauche pronation.
@@ -610,9 +628,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans La Cène de Léonard de Vinci, le bras gauche de Jésus est en supination, et le droit en pronation[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans La Cène de Léonard de Vinci, le bras gauche de Jésus est en supination, et le droit en pronation.
 </t>
         </is>
       </c>
